--- a/SEMESTER_2/DAVL/CLASS/data.xlsx
+++ b/SEMESTER_2/DAVL/CLASS/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UPES Programs\SEMESTER_2\DAVL\CLASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74537FF2-40E9-481E-B06F-0DC089132B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8676E188-E55E-4C37-8CE5-8E79A97F9A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{A8423F50-4856-4AE7-85DA-0BECA6F4E702}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" activeTab="1" xr2:uid="{4C4B5E12-05A1-43F7-8BDF-281B9DFB575A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Movies</t>
   </si>
@@ -40,6 +40,12 @@
     <t>Director</t>
   </si>
   <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Actress</t>
+  </si>
+  <si>
     <t>Rating</t>
   </si>
   <si>
@@ -52,6 +58,33 @@
     <t>Length</t>
   </si>
   <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Ananya Pandey</t>
+  </si>
+  <si>
+    <t>Sydney Sweeney</t>
+  </si>
+  <si>
+    <t>Reese Witherspoon</t>
+  </si>
+  <si>
+    <t>Blake Lively</t>
+  </si>
+  <si>
+    <t>Sidhant Chaturvedi</t>
+  </si>
+  <si>
+    <t>Glen Powell</t>
+  </si>
+  <si>
     <t>Kho Gaye Hum Kahan</t>
   </si>
   <si>
@@ -64,60 +97,54 @@
     <t>It Ends With Us</t>
   </si>
   <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Actress</t>
-  </si>
-  <si>
-    <t>Sidhant Chaturvedi</t>
-  </si>
-  <si>
-    <t>Ananya Pandey</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Glen Powell</t>
-  </si>
-  <si>
-    <t>Sydney Sweeney</t>
-  </si>
-  <si>
     <t>The Voyeurs</t>
   </si>
   <si>
+    <t>Arjun Varain Singh</t>
+  </si>
+  <si>
     <t>Will Gluck</t>
   </si>
   <si>
-    <t>Arjun Varain Singh</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Ryan Phillippe</t>
-  </si>
-  <si>
-    <t>Reese Witherspoon</t>
-  </si>
-  <si>
     <t>Roger Kumble</t>
   </si>
   <si>
     <t>Justin Baldoni</t>
   </si>
   <si>
-    <t>Blake Lively</t>
-  </si>
-  <si>
-    <t>Justice Smith</t>
-  </si>
-  <si>
     <t>Michael Mohan</t>
   </si>
   <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Sub-Genre</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Teen Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama </t>
+  </si>
+  <si>
+    <t>Erotic</t>
+  </si>
+  <si>
+    <t>Rom-Com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romantic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thriller </t>
+  </si>
+  <si>
+    <t>Romantic</t>
+  </si>
+  <si>
     <t>Body Heat</t>
   </si>
   <si>
@@ -130,31 +157,13 @@
     <t>Kathleen Turner</t>
   </si>
   <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Sub-Genre</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>Rom-Com</t>
-  </si>
-  <si>
-    <t>Teen Drama</t>
-  </si>
-  <si>
-    <t>Thriller</t>
-  </si>
-  <si>
-    <t>Erotic</t>
-  </si>
-  <si>
-    <t>Romantic</t>
-  </si>
-  <si>
-    <t>Comdey</t>
+    <t>Jsutice Smith</t>
+  </si>
+  <si>
+    <t>Ryan Phillipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
   </si>
 </sst>
 </file>
@@ -164,13 +173,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,10 +208,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,297 +532,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFE4D85-DFC9-43A7-BC59-11FE680051D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE63BBF-1E0E-4330-AC3F-39D34510CDB5}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2023</v>
+      </c>
+      <c r="H2" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2023</v>
-      </c>
-      <c r="H2" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>6.6</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
         <v>2024</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>6.8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2">
-        <v>1999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2024</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>6.1</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
         <v>2021</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>7.4</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
         <v>1981</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564F684E-C497-4F95-ADE5-6C496B95A83C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CE6623-2729-4325-B77D-2FD77369BCD3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>